--- a/biology/Botanique/Epicauta_vittata/Epicauta_vittata.xlsx
+++ b/biology/Botanique/Epicauta_vittata/Epicauta_vittata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epicauta vittata, le Méloé rayé, est une espèce d'insectes coléoptères de la famille des Meloidae originaire de l'est de l'Amérique du Nord (de la Floride au Québec).
 Les adultes, de forme allongée, longs de 9 à 17 mm, sont jaunes et noirs et portent deux ou trois bandes noires sur chacun des élytres.
